--- a/biology/Botanique/Trebbiano_di_Soave/Trebbiano_di_Soave.xlsx
+++ b/biology/Botanique/Trebbiano_di_Soave/Trebbiano_di_Soave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le trebbiano di Soave est un cépage italien de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage « Trebbiano di Soave » est classé cépage d'appoint en DOC Capriano del Colle, Castelli Romani, Colli Berici, Lugana, Recioto di Soave et Soave. Il est classé recommandé ou autorisé dans de nombreuses provinces des régions Lombardie et Vénétie. En 1998, sa culture couvrait 2 449 ha.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert blanchâtre à liserè carminé.
 Jeunes feuilles duveteuses, vert jaunâtre.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque tardive : 40 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrique allongée et  ailée. Le cépage est de bonne vigueur et productif. 
 Les vins sont de couleur jaune, généralement de qualité ordinaire.
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trebbiano di Soave est connu sous les noms de terbiana, turbiano, turbiana moscato, turviana, trebbiano di lugana, trebbiano verde, trebbiano veronese
 </t>
